--- a/LocatorRepository.xlsx
+++ b/LocatorRepository.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="166">
   <si>
     <t>Navigation</t>
   </si>
@@ -119,9 +119,6 @@
     <t>//div[@id='updatableWindowsContainer']/ul/li/h4[normalize-space()='{0}']</t>
   </si>
   <si>
-    <t>//div[@id='updatableWindowsContainer']//li[@class='all_leagues']//li</t>
-  </si>
-  <si>
     <t>//div[@id='updatableWindowsContainer']//ul[@class='leagues']/li/h5[normalize-space()='{0}']</t>
   </si>
   <si>
@@ -521,7 +518,13 @@
     <t>lblOpenBets</t>
   </si>
   <si>
-    <t>opBetsLBoxTitle</t>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>assadasdsadasdasd</t>
+  </si>
+  <si>
+    <t>asdasdasdasdasdasdasdasdasda</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,24 +1506,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -1529,16 +1532,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -1546,16 +1549,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -1563,16 +1566,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -1580,16 +1583,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1614,10 +1617,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1631,10 +1634,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1648,10 +1651,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1665,10 +1668,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1680,21 +1683,21 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -1702,10 +1705,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1719,10 +1722,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1736,36 +1739,36 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -1773,56 +1776,56 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -1830,16 +1833,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -1847,16 +1850,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -1864,16 +1867,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -1881,10 +1884,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1898,10 +1901,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -1915,16 +1918,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
@@ -1932,16 +1935,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -1949,16 +1952,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -1966,16 +1969,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -2037,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -2071,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -2088,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -2105,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2122,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2139,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -2156,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -2173,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -2190,13 +2193,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -2207,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -2224,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -2238,16 +2241,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
@@ -2255,16 +2258,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -2272,16 +2275,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -2289,16 +2292,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -2306,16 +2309,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
@@ -2323,16 +2326,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -2340,16 +2343,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
@@ -2357,16 +2360,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
@@ -2374,16 +2377,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -2391,16 +2394,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
@@ -2408,16 +2411,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
@@ -2425,16 +2428,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -2442,16 +2445,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -2548,27 +2551,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>13</v>
@@ -2580,16 +2583,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>13</v>
@@ -2600,16 +2603,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>13</v>
@@ -2620,16 +2623,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>13</v>
@@ -2640,16 +2643,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>13</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -2680,10 +2683,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -2700,10 +2703,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -2720,10 +2723,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -2740,10 +2743,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -2758,21 +2761,21 @@
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>13</v>
@@ -2783,10 +2786,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -2803,10 +2806,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -2823,16 +2826,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>13</v>
@@ -2841,21 +2844,21 @@
         <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>13</v>
@@ -2866,16 +2869,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>13</v>
@@ -2884,21 +2887,21 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>13</v>
@@ -2907,21 +2910,21 @@
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>13</v>
@@ -2932,16 +2935,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>13</v>
@@ -2952,16 +2955,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>13</v>
@@ -2972,16 +2975,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>13</v>
@@ -2992,10 +2995,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -3012,10 +3015,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -3032,16 +3035,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>13</v>
@@ -3052,16 +3055,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>13</v>
@@ -3072,16 +3075,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>13</v>
@@ -3092,16 +3095,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>13</v>
@@ -3121,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>13</v>
@@ -3130,7 +3133,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>13</v>
@@ -3153,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3167,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>13</v>
@@ -3176,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,13 +3187,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>13</v>
@@ -3199,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,13 +3210,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>13</v>
@@ -3222,7 +3225,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>13</v>
@@ -3245,7 +3248,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>13</v>
@@ -3268,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3276,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>13</v>
@@ -3291,7 +3294,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>13</v>
@@ -3314,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,14 +3325,14 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E38" s="14" t="s">
         <v>13</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>13</v>
@@ -3360,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>13</v>
@@ -3383,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>13</v>
@@ -3406,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,13 +3417,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>13</v>
@@ -3429,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3437,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>13</v>
@@ -3452,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>13</v>
@@ -3475,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3483,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>13</v>
@@ -3498,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>13</v>
@@ -3521,7 +3524,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>13</v>
@@ -3544,21 +3547,21 @@
         <v>7</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>13</v>
@@ -3569,16 +3572,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>13</v>
@@ -3587,21 +3590,21 @@
         <v>7</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>13</v>
@@ -3612,16 +3615,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>13</v>
@@ -3632,16 +3635,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>13</v>
@@ -3652,16 +3655,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>13</v>
@@ -3672,16 +3675,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>13</v>
@@ -3692,16 +3695,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>13</v>
@@ -3712,16 +3715,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>13</v>
@@ -3732,16 +3735,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>13</v>
@@ -3752,16 +3755,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>13</v>
@@ -3772,16 +3775,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>13</v>
@@ -3792,16 +3795,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>13</v>
@@ -3909,15 +3912,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3938,22 +3941,22 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/LocatorRepository.xlsx
+++ b/LocatorRepository.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="168">
   <si>
     <t>Navigation</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Xpath</t>
   </si>
   <si>
+    <t>//div[@id='place']//input[@id='PlaceBetButton']</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -65,6 +68,15 @@
     <t>txtStakeForAll</t>
   </si>
   <si>
+    <t>btnPlaceBet</t>
+  </si>
+  <si>
+    <t>linkMenuItem</t>
+  </si>
+  <si>
+    <t>linkBranchLocator</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -83,30 +95,66 @@
     <t>NewHeaderLoginButton</t>
   </si>
   <si>
+    <t>txtBetReceipt</t>
+  </si>
+  <si>
     <t>XPath</t>
   </si>
   <si>
     <t>//div[@id='purchases']//div[@class='status']</t>
   </si>
   <si>
+    <t>listSelectionsId</t>
+  </si>
+  <si>
     <t>//li[starts-with(@id, 'sce_')]</t>
   </si>
   <si>
+    <t>txtSelectionId</t>
+  </si>
+  <si>
+    <t>//li[@id='{0}']//div[starts-with(@class, 'descr')]</t>
+  </si>
+  <si>
+    <t>txtBetSliptab</t>
+  </si>
+  <si>
+    <t>//ul[@id='bet-tabs']/li[@class='{0} betting_slip_nbs  ']</t>
+  </si>
+  <si>
+    <t>txtTeamAndPoint</t>
+  </si>
+  <si>
     <t>//li[@id='{0}']//b[@class='teamAndPointsHolder']</t>
   </si>
   <si>
+    <t>txtBettingDetails</t>
+  </si>
+  <si>
     <t>//li[@id='{0}']//div[@class='bettingDetails']</t>
   </si>
   <si>
+    <t>inputStakeBox</t>
+  </si>
+  <si>
     <t>//li[@id='{0}']//input[starts-with(@id, 'stake_')]</t>
   </si>
   <si>
+    <t>txtSystemOptions</t>
+  </si>
+  <si>
     <t>//div[@class='bettingOptionsLine']//strong[normalize-space()='{0}']</t>
   </si>
   <si>
+    <t>inputSystemStakeBox</t>
+  </si>
+  <si>
     <t>stakebox_system</t>
   </si>
   <si>
+    <t>txtTotalAmountInBetSlip</t>
+  </si>
+  <si>
     <t>totalGain</t>
   </si>
   <si>
@@ -116,18 +164,42 @@
     <t>//ul[@id='sports_list']/li/a[normalize-space()='{0}']</t>
   </si>
   <si>
+    <t>txtBranchVerification</t>
+  </si>
+  <si>
     <t>//div[@id='updatableWindowsContainer']/ul/li/h4[normalize-space()='{0}']</t>
   </si>
   <si>
+    <t>listLeague</t>
+  </si>
+  <si>
+    <t>//div[@id='updatableWindowsContainer']//li[@class='all_leagues']//li</t>
+  </si>
+  <si>
+    <t>txtLeagueVerification</t>
+  </si>
+  <si>
     <t>//div[@id='updatableWindowsContainer']//ul[@class='leagues']/li/h5[normalize-space()='{0}']</t>
   </si>
   <si>
+    <t>txtOpenBets</t>
+  </si>
+  <si>
     <t>headerOpenBalance</t>
   </si>
   <si>
     <t>OpenBets</t>
   </si>
   <si>
+    <t>txtOpenBetsBox</t>
+  </si>
+  <si>
+    <t>opBetsLBoxTitle</t>
+  </si>
+  <si>
+    <t>classTicketDetails</t>
+  </si>
+  <si>
     <t>ClassName</t>
   </si>
   <si>
@@ -137,21 +209,45 @@
     <t>BetSelection</t>
   </si>
   <si>
+    <t>tblSelection</t>
+  </si>
+  <si>
     <t>//div[contains(@class, 'bet_type ')]//h6[normalize-space()='{0}']/parent::*//dt[normalize-space()='{1}']</t>
   </si>
   <si>
+    <t>txtStakeBox</t>
+  </si>
+  <si>
     <t>//input[@class='stakebox betSlipStakeItem singleDepositField ']</t>
   </si>
   <si>
+    <t>listBetSlipSelections</t>
+  </si>
+  <si>
+    <t>//li[starts-with(@id, 'sce_')]//div[starts-with(@class, 'descr')]</t>
+  </si>
+  <si>
+    <t>txtCost</t>
+  </si>
+  <si>
     <t>totalDeposit</t>
   </si>
   <si>
+    <t>btnEvent</t>
+  </si>
+  <si>
     <t>//div[@class='types_bg']//dt[@class='team_betting   ']//a[normalize-space()='{0}']</t>
   </si>
   <si>
+    <t>txtEventVerification</t>
+  </si>
+  <si>
     <t>//div[@id='updatableWindowsContainer']//ul//ul/li/h6/span[normalize-space()='{0}']</t>
   </si>
   <si>
+    <t>btnOpenBets</t>
+  </si>
+  <si>
     <t>LocatorType</t>
   </si>
   <si>
@@ -170,6 +266,15 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>submit_login</t>
+  </si>
+  <si>
     <t>BetSlip</t>
   </si>
   <si>
@@ -257,6 +362,9 @@
     <t>Comment connectio nwith system bet name</t>
   </si>
   <si>
+    <t>rBtnSystemBet</t>
+  </si>
+  <si>
     <t>//div[@class='bettingOptionsLine']//strong[normalize-space()='{0}']/parent::*//input[@type='radio']</t>
   </si>
   <si>
@@ -338,6 +446,9 @@
     <t>lnkOpenBets</t>
   </si>
   <si>
+    <t>lblOpenBets</t>
+  </si>
+  <si>
     <t>popupTicketDetailsBH</t>
   </si>
   <si>
@@ -420,111 +531,6 @@
   </si>
   <si>
     <t>reg_depositlimit</t>
-  </si>
-  <si>
-    <t>radBtnSystemBet</t>
-  </si>
-  <si>
-    <t>sport_name__text</t>
-  </si>
-  <si>
-    <t>breadcrumb-text</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Valid for responsive</t>
-  </si>
-  <si>
-    <t>//span[@class='leagueName' and text()=(normalize-space()='{0}')]</t>
-  </si>
-  <si>
-    <t>//h3[@id='leagueViewHeader']/span[normalize-space()='{0}']</t>
-  </si>
-  <si>
-    <t>all_leagues_more</t>
-  </si>
-  <si>
-    <t>//div[@class='event-details event-details-upcomming']//span[text()='{0}']/ancestor::div[@class='event-details event-details-upcomming']//span[text()='{1}']/ancestor::div[@class='event-details event-details-upcomming']</t>
-  </si>
-  <si>
-    <t>//div[@class='prelive-scoreboard-item']//div[text()='{0}']/ancestor::div[@class='prelive-scoreboard-item']//div[text()='{1}']</t>
-  </si>
-  <si>
-    <t>//a[@class='page-header-link page-header-simple-link' and @title='OPEN BETS']</t>
-  </si>
-  <si>
-    <t>//h3[@class='heading sectionHeading' and text()='Open Bets']</t>
-  </si>
-  <si>
-    <t>lnkMyAccount</t>
-  </si>
-  <si>
-    <t>hr-top-Top_ResponsiveHeader_12121-page-header-right5-main-container</t>
-  </si>
-  <si>
-    <t>//span[@class='breadcrumb-text' and text()='Betting History']</t>
-  </si>
-  <si>
-    <t>//a[@title='Join now']</t>
-  </si>
-  <si>
-    <t>?Valid for responsive?</t>
-  </si>
-  <si>
-    <t>//ul[@class='main_navigation']//a[normalize-space()='{0}']</t>
-  </si>
-  <si>
-    <t>SbtechDemoResponsive</t>
-  </si>
-  <si>
-    <t>btnShowAllLeagues</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>submit_login</t>
-  </si>
-  <si>
-    <t>lblFullName</t>
-  </si>
-  <si>
-    <t>//div[@class='page-header-element']/span[@title='{0}']</t>
-  </si>
-  <si>
-    <t>btnLoginForm</t>
-  </si>
-  <si>
-    <t>//div[@class='page-header-element']/a[@title='Login']</t>
-  </si>
-  <si>
-    <t>//div/a[@title='Logout']</t>
-  </si>
-  <si>
-    <t>//ul[@id='bet-tabs']/li[starts-with(@class, '{0} betting_slip_nbs')]</t>
-  </si>
-  <si>
-    <t>//td[@class='first']</t>
-  </si>
-  <si>
-    <t>tblOpenBets</t>
-  </si>
-  <si>
-    <t>lblOpenBets</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>assadasdsadasdasd</t>
-  </si>
-  <si>
-    <t>asdasdasdasdasdasdasdasdasda</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -605,61 +611,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -670,56 +626,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -889,20 +800,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6464"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1147,31 +1044,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Web" displayName="Web" ref="A1:F61" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A1:F61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Web" displayName="Web" ref="A1:F60" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:F60"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Module" dataDxfId="20"/>
-    <tableColumn id="2" name="Element name" dataDxfId="19"/>
-    <tableColumn id="3" name="Locator type" dataDxfId="18"/>
-    <tableColumn id="4" name="Locator" dataDxfId="17"/>
-    <tableColumn id="5" name="SbtechDemo" dataDxfId="16"/>
-    <tableColumn id="6" name="Comments" dataDxfId="15"/>
+    <tableColumn id="1" name="Module" dataDxfId="16"/>
+    <tableColumn id="2" name="Element name" dataDxfId="15"/>
+    <tableColumn id="3" name="Locator type" dataDxfId="14"/>
+    <tableColumn id="4" name="Locator" dataDxfId="13"/>
+    <tableColumn id="5" name="SbtechDemo" dataDxfId="12"/>
+    <tableColumn id="6" name="Comments" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Responsive" displayName="Responsive" ref="A1:G66" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G66"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Module" dataDxfId="6"/>
-    <tableColumn id="2" name="Element name" dataDxfId="5"/>
-    <tableColumn id="3" name="Locator type" dataDxfId="4"/>
-    <tableColumn id="4" name="Locator" dataDxfId="3"/>
-    <tableColumn id="5" name="SbtechDemo" dataDxfId="2"/>
-    <tableColumn id="8" name="SbtechDemoResponsive" dataDxfId="1"/>
-    <tableColumn id="6" name="Column1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Responsive" displayName="Responsive" ref="A1:E43" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E43"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Module" dataDxfId="4"/>
+    <tableColumn id="2" name="Element name" dataDxfId="3"/>
+    <tableColumn id="3" name="Locator type" dataDxfId="2"/>
+    <tableColumn id="4" name="Locator" dataDxfId="1"/>
+    <tableColumn id="5" name="SbtechDemo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1474,11 +1369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,482 +1401,482 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,16 +1884,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,16 +1918,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,16 +1952,16 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,16 +1986,16 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,16 +2054,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,258 +2105,241 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>7</v>
+        <v>119</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>7</v>
+        <v>146</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2518,11 +2396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48:D48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,12 +2410,10 @@
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2551,1278 +2427,530 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C1048576">
       <formula1>Locator_Type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>Environment</formula1>
     </dataValidation>
   </dataValidations>
@@ -3835,7 +2963,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{28559533-7570-41BD-BA33-96D345A8227E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{28559533-7570-41BD-BA33-96D345A8227E}">
             <xm:f>metadata!$C$2</xm:f>
             <x14:dxf>
               <fill>
@@ -3845,7 +2973,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{9CC2F20C-D7B3-48A5-A07B-1CE507EEC3CD}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{9CC2F20C-D7B3-48A5-A07B-1CE507EEC3CD}">
             <xm:f>metadata!$C$3</xm:f>
             <x14:dxf>
               <fill>
@@ -3855,30 +2983,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E1:F1 E61:F1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{01977EB3-8884-4066-8F5D-C0B2A98BE708}">
-            <xm:f>metadata!$C$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF6464"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1D50733A-6058-4420-93BD-D714F9194E02}">
-            <xm:f>metadata!$C$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E2:F60</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3888,7 +2993,7 @@
           <x14:formula1>
             <xm:f>metadata!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C60</xm:sqref>
+          <xm:sqref>C2:C31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3912,51 +3017,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
